--- a/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
+++ b/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,76 +512,106 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.68</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>009274</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>94.74</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.68</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003291</t>
+          <t>001717</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>信达澳银健康中国灵活配置混合</t>
+          <t>工银瑞信前沿医疗股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>73.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001171</t>
+          <t>000831</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信养老产业股票</t>
+          <t>工银瑞信医疗保健行业股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.30</t>
+          <t>38.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8820</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009893</t>
+          <t>010393</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优悦安和混合</t>
+          <t>工银瑞信健康生活混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>30.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.73</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4530</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -706,25 +786,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>233001</t>
+          <t>001230</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大摩基础行业混合</t>
+          <t>鹏华医药科技股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.73</t>
+          <t>19.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3344</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>233007</t>
+          <t>481010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大摩卓越成长混合</t>
+          <t>工银瑞信中小盘混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>25.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2881</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -762,26 +862,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>233008</t>
+          <t>006299</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大摩消费领航混合基金</t>
+          <t>恒越核心精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>79.09</t>
+          <t>24.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0487</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -790,26 +900,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000513</t>
+          <t>519035</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国高端制造行业股票</t>
+          <t>富国天博创新混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.99</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>3.27</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>7</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9967</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -818,26 +938,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006299</t>
+          <t>001171</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恒越核心精选混合A</t>
+          <t>工银瑞信养老产业股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.02</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9245</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -846,26 +976,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007193</t>
+          <t>002708</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>恒越核心精选混合C</t>
+          <t>大摩健康产业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79.02</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7126</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -874,25 +1014,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006538</t>
+          <t>000513</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>东海核心价值精选混合</t>
+          <t>富国高端制造行业股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.76</t>
+          <t>16.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5235</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -902,25 +1052,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000831</t>
+          <t>007193</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银瑞信医疗保健行业股票</t>
+          <t>恒越核心精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5077</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010314</t>
+          <t>506001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫内需增长混合</t>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>62.68</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010393</t>
+          <t>010314</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信健康生活混合A</t>
+          <t>摩根士丹利华鑫内需增长混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>62.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4398</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010394</t>
+          <t>010701</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>工银瑞信健康生活混合C</t>
+          <t>恒越内需驱动混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>73.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4259</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>481010</t>
+          <t>233007</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信中小盘混合</t>
+          <t>大摩卓越成长混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.12</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>487016</t>
+          <t>010622</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合A</t>
+          <t>恒越成长精选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>73.66</t>
+          <t>21.68</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>55.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3425</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001428</t>
+          <t>519170</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银瑞信灵活配置混合B</t>
+          <t>浦银安盛增长动力灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>73.66</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>487021</t>
+          <t>519171</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>工银瑞信优质精选混合</t>
+          <t>浦银安盛医疗健康灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>87.41</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2681</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010622</t>
+          <t>009364</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>恒越成长精选混合A</t>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>55.33</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010623</t>
+          <t>003291</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>恒越成长精选混合C</t>
+          <t>信达澳银健康中国灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>55.33</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1946</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>506001</t>
+          <t>010394</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+          <t>工银瑞信健康生活混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>96.44</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>010701</t>
+          <t>233001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>恒越内需驱动混合A</t>
+          <t>大摩基础行业混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>73.29</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1270</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1248,15 +1518,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>73.29</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>4.97</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001230</t>
+          <t>001496</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>鹏华医药科技股票</t>
+          <t>工银瑞信聚焦30股票</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>001496</t>
+          <t>010623</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>工银瑞信聚焦30股票</t>
+          <t>恒越成长精选混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>86.08</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>55.33</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519035</t>
+          <t>001990</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富国天博创新混合</t>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001717</t>
+          <t>487016</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>工银瑞信前沿医疗股票A</t>
+          <t>工银瑞信灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>010685</t>
+          <t>233008</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>工银瑞信前沿医疗股票C</t>
+          <t>大摩消费领航混合基金</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>519170</t>
+          <t>010685</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>浦银安盛增长动力灵活配置混合</t>
+          <t>工银瑞信前沿医疗股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>91.17</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>519171</t>
+          <t>009893</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>浦银安盛医疗健康灵活配置混合</t>
+          <t>摩根士丹利华鑫优悦安和混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001990</t>
+          <t>487021</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中欧数据挖掘多因子灵活配置混合A</t>
+          <t>工银瑞信优质精选混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>004234</t>
+          <t>009189</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>中欧数据挖掘多因子灵活配置混合C</t>
+          <t>华宝成长策略混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>4</v>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>002708</t>
+          <t>009365</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>大摩健康产业混合</t>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>84.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1556,15 +1936,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>84.36</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>5.87</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009189</t>
+          <t>004234</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华宝成长策略混合</t>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>009364</t>
+          <t>006538</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合A</t>
+          <t>东海核心价值精选混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>84.98</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1630,26 +2040,30 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>009365</t>
+          <t>001428</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>工银瑞信科技创新6个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>84.98</t>
-        </is>
-      </c>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>8</v>
+          <t>73.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
+++ b/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2048,7 +2049,6 @@
           <t>工银瑞信灵活配置混合B</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>73.66</t>
@@ -2063,6 +2063,1884 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2049</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3411</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1776</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2717</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0850</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0520</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7283</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5115</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4789</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4562</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4178</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4153</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3892</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3641</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3213</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2532</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2063</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1844</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000887</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>上投摩根稳进回报混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
+++ b/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3947,4 +3948,3212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>634.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.5846</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>321.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.4532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>175.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>11.1728</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>116.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.3899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>141.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.0513</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9615</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.0993</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3774</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2372</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0356</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6055</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5582</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3910</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0655</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0605</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8996</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6271</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6070</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5506</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5117</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4041</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3818</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3725</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3413</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3220</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2517</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006430</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>凯石澜龙头经济定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.44</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1681</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>58.67</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010702</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>恒越内需驱动混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>233008</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大摩消费领航混合基金</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009918</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>上银核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009919</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>上银核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
+++ b/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7156,4 +7157,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
+++ b/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7165,7 +7166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7176,17 +7177,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7196,14 +7217,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>83</v>
-      </c>
-      <c r="D2" t="n">
-        <v>88.45</v>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4279</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -7212,14 +7255,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.29</v>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7228,14 +7293,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.03</v>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4241</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7244,13 +7331,1555 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3360</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8812</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7456</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6973</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6636</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6314</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6002</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5170</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4998</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3847</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3806</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3395</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004076</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安锐意成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
+++ b/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8778,7 +8779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8789,17 +8790,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8809,14 +8830,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.83</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>180.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6929</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -8825,14 +8868,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>83</v>
-      </c>
-      <c r="D3" t="n">
-        <v>88.45</v>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3738</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -8841,14 +8906,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.29</v>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8857,14 +8944,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.03</v>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4272</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8873,13 +8982,2365 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2304</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1992</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0220</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9438</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商医药健康产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9386</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9058</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012888</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7879</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6948</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6463</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5577</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4224</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3804</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3661</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3113</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.88</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012889</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银兴瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011788</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银聚益混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010427</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010428</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴银策略智选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>39.47</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>银河量化价值混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011789</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银聚益混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>48</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
+++ b/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11223,7 +11224,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11234,17 +11235,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11254,14 +11275,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>63</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.05</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -11270,14 +11313,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.83</v>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4968</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -11286,14 +11351,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>83</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88.45</v>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8654</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -11302,14 +11389,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>48</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.29</v>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3265</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -11318,14 +11427,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.03</v>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2457</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -11334,13 +11465,3291 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9510</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9242</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6956</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6126</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5916</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5583</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5049</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4925</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4909</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4141</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3855</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3662</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3341</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3227</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3185</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3014</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001345</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2238</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014126</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001347</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>48.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010447</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014125</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010448</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中邮未来成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>015165</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014869</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>88</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>63</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" t="n">
+        <v>88.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
+++ b/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D2" t="n">
-        <v>28.32</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D3" t="n">
-        <v>32.05</v>
+        <v>28.32</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D4" t="n">
-        <v>15.83</v>
+        <v>32.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>88.45</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D6" t="n">
-        <v>23.29</v>
+        <v>88.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D7" t="n">
-        <v>18.03</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.44</v>
       </c>
     </row>
@@ -600,6 +617,1734 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8972</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7885</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银养老产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8132</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4897</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3766</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2590</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大摩新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013357</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012238</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银养老产业股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013356</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015052</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015053</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方红医疗升级股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014869</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3991,7 +5736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6435,7 +8180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8047,7 +9792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11255,7 +13000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13133,7 +14878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14588,7 +16333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
+++ b/数据整理/stocks/A股/科创板/688202-美迪西.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
-        <v>8.66</v>
+        <v>7.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D3" t="n">
-        <v>28.32</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D4" t="n">
-        <v>32.05</v>
+        <v>28.32</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>15.83</v>
+        <v>32.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>88.45</v>
+        <v>15.83</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="D7" t="n">
-        <v>23.29</v>
+        <v>88.45</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
-        <v>18.03</v>
+        <v>23.29</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,200 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1615</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +804,1924 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7681</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003231</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2669</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信医疗保健行业股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1722</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大摩新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011404</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013357</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013349</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013356</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大摩沪港深精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011403</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>融通鑫新成长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013348</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信大健康混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010878</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺德优势产业混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>571002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014220</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014221</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>恒越医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>168301</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东海祥龙灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>015655</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014869</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014422</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014821</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015656</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>富荣医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2344,7 +4449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5736,7 +7841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8180,7 +10285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9792,7 +11897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13000,7 +15105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14878,7 +16983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16331,174 +18436,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000727</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2473</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003291</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>信达澳银健康中国灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1615</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009274</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通健康产业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>